--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt7a-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt7a-Fzd5.xlsx
@@ -552,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.676920666666666</v>
+        <v>2.874784666666667</v>
       </c>
       <c r="N2">
-        <v>8.030761999999999</v>
+        <v>8.624354</v>
       </c>
       <c r="O2">
-        <v>0.1137411923116975</v>
+        <v>0.1187109652550681</v>
       </c>
       <c r="P2">
-        <v>0.1167596329733683</v>
+        <v>0.121184727686443</v>
       </c>
       <c r="Q2">
-        <v>1.141054387997555</v>
+        <v>1.225395171136222</v>
       </c>
       <c r="R2">
-        <v>10.269489491978</v>
+        <v>11.028556540226</v>
       </c>
       <c r="S2">
-        <v>0.1137411923116975</v>
+        <v>0.1187109652550681</v>
       </c>
       <c r="T2">
-        <v>0.1167596329733683</v>
+        <v>0.121184727686443</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>32.27421</v>
       </c>
       <c r="O3">
-        <v>0.4571057050773152</v>
+        <v>0.4442422727481699</v>
       </c>
       <c r="P3">
-        <v>0.4692362834442626</v>
+        <v>0.4534996302499962</v>
       </c>
       <c r="Q3">
         <v>4.585695471943333</v>
@@ -638,10 +638,10 @@
         <v>41.27125924748999</v>
       </c>
       <c r="S3">
-        <v>0.4571057050773152</v>
+        <v>0.4442422727481699</v>
       </c>
       <c r="T3">
-        <v>0.4692362834442626</v>
+        <v>0.4534996302499962</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.564735333333334</v>
+        <v>5.147441999999999</v>
       </c>
       <c r="N4">
-        <v>10.694206</v>
+        <v>15.442326</v>
       </c>
       <c r="O4">
-        <v>0.1514640505181089</v>
+        <v>0.2125577666737049</v>
       </c>
       <c r="P4">
-        <v>0.1554835727296605</v>
+        <v>0.2169871588243338</v>
       </c>
       <c r="Q4">
-        <v>1.519491012490445</v>
+        <v>2.194129752966</v>
       </c>
       <c r="R4">
-        <v>13.675419112414</v>
+        <v>19.747167776694</v>
       </c>
       <c r="S4">
-        <v>0.1514640505181089</v>
+        <v>0.2125577666737049</v>
       </c>
       <c r="T4">
-        <v>0.1554835727296605</v>
+        <v>0.2169871588243338</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.8252775</v>
+        <v>1.483016</v>
       </c>
       <c r="N5">
-        <v>3.650555</v>
+        <v>2.966032</v>
       </c>
       <c r="O5">
-        <v>0.07755524537386904</v>
+        <v>0.06123946008548931</v>
       </c>
       <c r="P5">
-        <v>0.05307559381651387</v>
+        <v>0.04167706708575228</v>
       </c>
       <c r="Q5">
-        <v>0.7780360944658333</v>
+        <v>0.6321449624346668</v>
       </c>
       <c r="R5">
-        <v>4.668216566795</v>
+        <v>3.792869774608</v>
       </c>
       <c r="S5">
-        <v>0.07755524537386904</v>
+        <v>0.06123946008548931</v>
       </c>
       <c r="T5">
-        <v>0.05307559381651387</v>
+        <v>0.04167706708575228</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.710187333333333</v>
+        <v>3.953360666666667</v>
       </c>
       <c r="N6">
-        <v>14.130562</v>
+        <v>11.860082</v>
       </c>
       <c r="O6">
-        <v>0.2001338067190093</v>
+        <v>0.1632495352375677</v>
       </c>
       <c r="P6">
-        <v>0.2054449170361947</v>
+        <v>0.1666514161534747</v>
       </c>
       <c r="Q6">
-        <v>2.007747182019778</v>
+        <v>1.685145022117556</v>
       </c>
       <c r="R6">
-        <v>18.069724638178</v>
+        <v>15.166305199058</v>
       </c>
       <c r="S6">
-        <v>0.2001338067190093</v>
+        <v>0.1632495352375677</v>
       </c>
       <c r="T6">
-        <v>0.2054449170361947</v>
+        <v>0.1666514161534747</v>
       </c>
     </row>
   </sheetData>
